--- a/SPPSApi/Doc/Template/FS1211_ALLExport.xlsx
+++ b/SPPSApi/Doc/Template/FS1211_ALLExport.xlsx
@@ -788,12 +788,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
     <col min="8" max="11" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="130" max="131" width="15.21875" bestFit="1" customWidth="1"/>
